--- a/氣象性能評估工具V2/data/obs/backup/2016-06-02_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-02_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-02 00:00:00</t>
+    <t>2016-06-02-00</t>
   </si>
   <si>
     <t>24.7</t>
@@ -151,7 +151,7 @@
     <t>31.4</t>
   </si>
   <si>
-    <t>2016-06-02 01:00:00</t>
+    <t>2016-06-02-01</t>
   </si>
   <si>
     <t>24.1</t>
@@ -187,7 +187,7 @@
     <t>29.2</t>
   </si>
   <si>
-    <t>2016-06-02 02:00:00</t>
+    <t>2016-06-02-02</t>
   </si>
   <si>
     <t>23.8</t>
@@ -214,7 +214,7 @@
     <t>28.7</t>
   </si>
   <si>
-    <t>2016-06-02 03:00:00</t>
+    <t>2016-06-02-03</t>
   </si>
   <si>
     <t>22.3</t>
@@ -247,7 +247,7 @@
     <t>27.4</t>
   </si>
   <si>
-    <t>2016-06-02 04:00:00</t>
+    <t>2016-06-02-04</t>
   </si>
   <si>
     <t>22.5</t>
@@ -268,7 +268,7 @@
     <t>27.7</t>
   </si>
   <si>
-    <t>2016-06-02 05:00:00</t>
+    <t>2016-06-02-05</t>
   </si>
   <si>
     <t>22.6</t>
@@ -286,7 +286,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2016-06-02 06:00:00</t>
+    <t>2016-06-02-06</t>
   </si>
   <si>
     <t>22.8</t>
@@ -313,7 +313,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2016-06-02 07:00:00</t>
+    <t>2016-06-02-07</t>
   </si>
   <si>
     <t>23.0</t>
@@ -343,7 +343,7 @@
     <t>30.6</t>
   </si>
   <si>
-    <t>2016-06-02 08:00:00</t>
+    <t>2016-06-02-08</t>
   </si>
   <si>
     <t>21.2</t>
@@ -382,7 +382,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-02 09:00:00</t>
+    <t>2016-06-02-09</t>
   </si>
   <si>
     <t>25.7</t>
@@ -409,7 +409,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2016-06-02 10:00:00</t>
+    <t>2016-06-02-10</t>
   </si>
   <si>
     <t>24.8</t>
@@ -436,7 +436,7 @@
     <t>32.3</t>
   </si>
   <si>
-    <t>2016-06-02 11:00:00</t>
+    <t>2016-06-02-11</t>
   </si>
   <si>
     <t>26.0</t>
@@ -469,7 +469,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-02 12:00:00</t>
+    <t>2016-06-02-12</t>
   </si>
   <si>
     <t>21.6</t>
@@ -484,7 +484,7 @@
     <t>32.1</t>
   </si>
   <si>
-    <t>2016-06-02 13:00:00</t>
+    <t>2016-06-02-13</t>
   </si>
   <si>
     <t>22.1</t>
@@ -502,7 +502,7 @@
     <t>9.5</t>
   </si>
   <si>
-    <t>2016-06-02 14:00:00</t>
+    <t>2016-06-02-14</t>
   </si>
   <si>
     <t>22.4</t>
@@ -517,7 +517,7 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>2016-06-02 15:00:00</t>
+    <t>2016-06-02-15</t>
   </si>
   <si>
     <t>23.6</t>
@@ -532,7 +532,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-02 16:00:00</t>
+    <t>2016-06-02-16</t>
   </si>
   <si>
     <t>23.7</t>
@@ -544,7 +544,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>2016-06-02 17:00:00</t>
+    <t>2016-06-02-17</t>
   </si>
   <si>
     <t>24.0</t>
@@ -559,7 +559,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-02 18:00:00</t>
+    <t>2016-06-02-18</t>
   </si>
   <si>
     <t>23.5</t>
@@ -574,7 +574,7 @@
     <t>5.8</t>
   </si>
   <si>
-    <t>2016-06-02 19:00:00</t>
+    <t>2016-06-02-19</t>
   </si>
   <si>
     <t>25.5</t>
@@ -583,7 +583,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-02 20:00:00</t>
+    <t>2016-06-02-20</t>
   </si>
   <si>
     <t>22.2</t>
@@ -592,13 +592,13 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>2016-06-02 21:00:00</t>
+    <t>2016-06-02-21</t>
   </si>
   <si>
     <t>13.5</t>
   </si>
   <si>
-    <t>2016-06-02 22:00:00</t>
+    <t>2016-06-02-22</t>
   </si>
   <si>
     <t>22.0</t>
@@ -607,7 +607,7 @@
     <t>14.1</t>
   </si>
   <si>
-    <t>2016-06-02 23:00:00</t>
+    <t>2016-06-02-23</t>
   </si>
 </sst>
 </file>
